--- a/Team-Data/2008-09/4-1-2008-09.xlsx
+++ b/Team-Data/2008-09/4-1-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -765,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -780,13 +847,13 @@
         <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
@@ -798,13 +865,13 @@
         <v>21</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY2" t="n">
         <v>6</v>
@@ -813,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
         <v>21</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -860,55 +927,55 @@
         <v>0.747</v>
       </c>
       <c r="H3" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J3" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P3" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U3" t="n">
         <v>22.7</v>
       </c>
       <c r="V3" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W3" t="n">
         <v>7.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
@@ -920,10 +987,10 @@
         <v>22.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
         <v>2</v>
@@ -932,13 +999,13 @@
         <v>3</v>
       </c>
       <c r="AF3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -950,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
@@ -959,13 +1026,13 @@
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
@@ -980,16 +1047,16 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -1030,25 +1097,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" t="n">
         <v>34</v>
       </c>
       <c r="F4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>0.453</v>
+        <v>0.459</v>
       </c>
       <c r="H4" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J4" t="n">
-        <v>76.90000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="K4" t="n">
         <v>0.457</v>
@@ -1060,28 +1127,28 @@
         <v>16.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.372</v>
+        <v>0.369</v>
       </c>
       <c r="O4" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P4" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="Q4" t="n">
         <v>0.741</v>
       </c>
       <c r="R4" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T4" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="U4" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V4" t="n">
         <v>15.7</v>
@@ -1090,7 +1157,7 @@
         <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y4" t="n">
         <v>5.9</v>
@@ -1102,25 +1169,25 @@
         <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="AC4" t="n">
         <v>-0.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
@@ -1138,7 +1205,7 @@
         <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
         <v>26</v>
@@ -1150,10 +1217,10 @@
         <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT4" t="n">
         <v>27</v>
@@ -1180,10 +1247,10 @@
         <v>13</v>
       </c>
       <c r="BB4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -1212,55 +1279,55 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>0.467</v>
+        <v>0.474</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J5" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
         <v>15.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O5" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="P5" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U5" t="n">
         <v>21</v>
@@ -1281,19 +1348,19 @@
         <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1305,13 +1372,13 @@
         <v>1</v>
       </c>
       <c r="AI5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
         <v>23</v>
@@ -1320,13 +1387,13 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
@@ -1341,31 +1408,31 @@
         <v>8</v>
       </c>
       <c r="AU5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB5" t="n">
         <v>9</v>
       </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" t="n">
         <v>61</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.836</v>
+        <v>0.824</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.468</v>
@@ -1421,19 +1488,19 @@
         <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.389</v>
+        <v>0.387</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R6" t="n">
         <v>10.7</v>
@@ -1445,10 +1512,10 @@
         <v>42.1</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V6" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1460,19 +1527,19 @@
         <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1487,7 +1554,7 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
@@ -1496,16 +1563,16 @@
         <v>6</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
         <v>6</v>
       </c>
       <c r="AN6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
@@ -1526,10 +1593,10 @@
         <v>23</v>
       </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
         <v>6</v>
@@ -1541,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="n">
         <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>0.595</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
@@ -1594,7 +1661,7 @@
         <v>38.1</v>
       </c>
       <c r="J7" t="n">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K7" t="n">
         <v>0.46</v>
@@ -1603,7 +1670,7 @@
         <v>6.8</v>
       </c>
       <c r="M7" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N7" t="n">
         <v>0.346</v>
@@ -1612,19 +1679,19 @@
         <v>18.2</v>
       </c>
       <c r="P7" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S7" t="n">
         <v>31.7</v>
       </c>
       <c r="T7" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U7" t="n">
         <v>21.5</v>
@@ -1654,7 +1721,7 @@
         <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1666,16 +1733,16 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ7" t="n">
         <v>6</v>
       </c>
       <c r="AK7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL7" t="n">
         <v>12</v>
@@ -1696,31 +1763,31 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS7" t="n">
         <v>6</v>
       </c>
       <c r="AT7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX7" t="n">
         <v>8</v>
       </c>
       <c r="AY7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA7" t="n">
         <v>24</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -1860,13 +1927,13 @@
         <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1878,10 +1945,10 @@
         <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT8" t="n">
         <v>13</v>
@@ -1899,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="AY8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -1940,22 +2007,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" t="n">
         <v>36</v>
       </c>
       <c r="F9" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="n">
-        <v>0.48</v>
+        <v>0.486</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
       </c>
       <c r="I9" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J9" t="n">
         <v>79.90000000000001</v>
@@ -1970,16 +2037,16 @@
         <v>12.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O9" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P9" t="n">
         <v>22.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R9" t="n">
         <v>11.5</v>
@@ -1988,10 +2055,10 @@
         <v>29.7</v>
       </c>
       <c r="T9" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U9" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V9" t="n">
         <v>12</v>
@@ -2006,19 +2073,19 @@
         <v>4.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA9" t="n">
         <v>19.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
@@ -2030,7 +2097,7 @@
         <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AI9" t="n">
         <v>22</v>
@@ -2054,16 +2121,16 @@
         <v>29</v>
       </c>
       <c r="AP9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR9" t="n">
         <v>10</v>
       </c>
       <c r="AS9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT9" t="n">
         <v>17</v>
@@ -2090,10 +2157,10 @@
         <v>29</v>
       </c>
       <c r="BB9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
         <v>49</v>
       </c>
       <c r="G10" t="n">
-        <v>0.347</v>
+        <v>0.338</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="J10" t="n">
-        <v>86.3</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L10" t="n">
         <v>6.7</v>
@@ -2152,13 +2219,13 @@
         <v>18</v>
       </c>
       <c r="N10" t="n">
-        <v>0.371</v>
+        <v>0.373</v>
       </c>
       <c r="O10" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="P10" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="Q10" t="n">
         <v>0.789</v>
@@ -2167,13 +2234,13 @@
         <v>11.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T10" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U10" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V10" t="n">
         <v>14.9</v>
@@ -2188,19 +2255,19 @@
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA10" t="n">
         <v>23.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>109.1</v>
+        <v>108.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.8</v>
+        <v>-3.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,16 +2279,16 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
         <v>16</v>
@@ -2230,7 +2297,7 @@
         <v>17</v>
       </c>
       <c r="AN10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
         <v>1</v>
@@ -2245,16 +2312,16 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT10" t="n">
         <v>11</v>
       </c>
       <c r="AU10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2272,7 +2339,7 @@
         <v>3</v>
       </c>
       <c r="BB10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC10" t="n">
         <v>24</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -2304,52 +2371,52 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" t="n">
         <v>48</v>
       </c>
       <c r="F11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" t="n">
-        <v>0.64</v>
+        <v>0.649</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J11" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L11" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M11" t="n">
         <v>20.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.377</v>
+        <v>0.375</v>
       </c>
       <c r="O11" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P11" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.806</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R11" t="n">
         <v>10.4</v>
       </c>
       <c r="S11" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T11" t="n">
         <v>42.9</v>
@@ -2370,40 +2437,40 @@
         <v>5.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
         <v>7</v>
@@ -2412,13 +2479,13 @@
         <v>5</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
@@ -2433,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV11" t="n">
         <v>16</v>
@@ -2454,7 +2521,7 @@
         <v>16</v>
       </c>
       <c r="BB11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC11" t="n">
         <v>6</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -2582,19 +2649,19 @@
         <v>4</v>
       </c>
       <c r="AJ12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL12" t="n">
         <v>3</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>4</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
         <v>22</v>
@@ -2624,7 +2691,7 @@
         <v>23</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
@@ -2633,7 +2700,7 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BB12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" t="n">
         <v>18</v>
       </c>
       <c r="F13" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" t="n">
-        <v>0.24</v>
+        <v>0.243</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
@@ -2686,25 +2753,25 @@
         <v>36.1</v>
       </c>
       <c r="J13" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K13" t="n">
         <v>0.442</v>
       </c>
       <c r="L13" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M13" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.361</v>
+        <v>0.359</v>
       </c>
       <c r="O13" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P13" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q13" t="n">
         <v>0.74</v>
@@ -2713,16 +2780,16 @@
         <v>10.9</v>
       </c>
       <c r="S13" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T13" t="n">
         <v>39.8</v>
       </c>
       <c r="U13" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V13" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
@@ -2734,19 +2801,19 @@
         <v>5.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="AC13" t="n">
         <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2770,19 +2837,19 @@
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
         <v>28</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
         <v>28</v>
@@ -2794,13 +2861,13 @@
         <v>25</v>
       </c>
       <c r="AT13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU13" t="n">
         <v>13</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2815,7 +2882,7 @@
         <v>8</v>
       </c>
       <c r="BA13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -2868,49 +2935,49 @@
         <v>40.5</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="K14" t="n">
         <v>0.475</v>
       </c>
       <c r="L14" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M14" t="n">
         <v>18.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.362</v>
+        <v>0.364</v>
       </c>
       <c r="O14" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="P14" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R14" t="n">
         <v>12.5</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
         <v>23.4</v>
       </c>
       <c r="V14" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W14" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y14" t="n">
         <v>4.8</v>
@@ -2919,16 +2986,16 @@
         <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2955,7 +3022,7 @@
         <v>14</v>
       </c>
       <c r="AM14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
         <v>18</v>
@@ -2964,10 +3031,10 @@
         <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
@@ -2985,13 +3052,13 @@
         <v>11</v>
       </c>
       <c r="AW14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ14" t="n">
         <v>12</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -3032,46 +3099,46 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" t="n">
         <v>54</v>
       </c>
       <c r="G15" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J15" t="n">
         <v>77.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L15" t="n">
         <v>4.6</v>
       </c>
       <c r="M15" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O15" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P15" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R15" t="n">
         <v>10.5</v>
@@ -3083,16 +3150,16 @@
         <v>38.8</v>
       </c>
       <c r="U15" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="V15" t="n">
         <v>15.2</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
         <v>5.5</v>
@@ -3104,13 +3171,13 @@
         <v>21.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.1</v>
+        <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3140,13 +3207,13 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
@@ -3167,7 +3234,7 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" t="n">
         <v>39</v>
       </c>
       <c r="F16" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" t="n">
-        <v>0.52</v>
+        <v>0.527</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J16" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K16" t="n">
         <v>0.455</v>
@@ -3244,16 +3311,16 @@
         <v>19.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O16" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P16" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R16" t="n">
         <v>10.2</v>
@@ -3268,13 +3335,13 @@
         <v>20.4</v>
       </c>
       <c r="V16" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="W16" t="n">
         <v>8.1</v>
       </c>
       <c r="X16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y16" t="n">
         <v>4.1</v>
@@ -3292,19 +3359,19 @@
         <v>-0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI16" t="n">
         <v>12</v>
@@ -3316,7 +3383,7 @@
         <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM16" t="n">
         <v>10</v>
@@ -3328,7 +3395,7 @@
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
         <v>20</v>
@@ -3343,7 +3410,7 @@
         <v>28</v>
       </c>
       <c r="AU16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
@@ -3352,10 +3419,10 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY16" t="n">
         <v>5</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>6</v>
       </c>
       <c r="AZ16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -3414,7 +3481,7 @@
         <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>82.40000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="K17" t="n">
         <v>0.443</v>
@@ -3423,16 +3490,16 @@
         <v>6.1</v>
       </c>
       <c r="M17" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O17" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="P17" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q17" t="n">
         <v>0.781</v>
@@ -3441,19 +3508,19 @@
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X17" t="n">
         <v>3.7</v>
@@ -3462,16 +3529,16 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="AA17" t="n">
         <v>22.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD17" t="n">
         <v>2</v>
@@ -3507,10 +3574,10 @@
         <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3519,19 +3586,19 @@
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
         <v>13</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -3668,10 +3735,10 @@
         <v>26</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
         <v>7</v>
@@ -3680,10 +3747,10 @@
         <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN18" t="n">
         <v>22</v>
@@ -3692,10 +3759,10 @@
         <v>18</v>
       </c>
       <c r="AP18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3707,10 +3774,10 @@
         <v>14</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" t="n">
         <v>44</v>
       </c>
       <c r="G19" t="n">
-        <v>0.413</v>
+        <v>0.405</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
@@ -3778,10 +3845,10 @@
         <v>35.8</v>
       </c>
       <c r="J19" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L19" t="n">
         <v>7.9</v>
@@ -3790,28 +3857,28 @@
         <v>21</v>
       </c>
       <c r="N19" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O19" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P19" t="n">
         <v>24.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R19" t="n">
         <v>10.3</v>
       </c>
       <c r="S19" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T19" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="U19" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V19" t="n">
         <v>13.1</v>
@@ -3823,22 +3890,22 @@
         <v>4.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.6</v>
+        <v>-2.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3850,7 +3917,7 @@
         <v>21</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>27</v>
@@ -3862,19 +3929,19 @@
         <v>24</v>
       </c>
       <c r="AL19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM19" t="n">
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AO19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
@@ -3886,7 +3953,7 @@
         <v>21</v>
       </c>
       <c r="AT19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU19" t="n">
         <v>26</v>
@@ -3898,22 +3965,22 @@
         <v>22</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ19" t="n">
         <v>25</v>
       </c>
       <c r="BA19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -3942,64 +4009,64 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" t="n">
         <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>0.635</v>
+        <v>0.63</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
       </c>
       <c r="I20" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J20" t="n">
         <v>77.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
         <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.367</v>
+        <v>0.369</v>
       </c>
       <c r="O20" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P20" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q20" t="n">
         <v>0.8110000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S20" t="n">
         <v>30</v>
       </c>
       <c r="T20" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U20" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="V20" t="n">
         <v>12.7</v>
       </c>
       <c r="W20" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X20" t="n">
         <v>4.3</v>
@@ -4008,22 +4075,22 @@
         <v>3.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="AC20" t="n">
         <v>2.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
         <v>8</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
         <v>11</v>
@@ -4050,13 +4117,13 @@
         <v>13</v>
       </c>
       <c r="AN20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO20" t="n">
         <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4068,16 +4135,16 @@
         <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU20" t="n">
         <v>28</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX20" t="n">
         <v>23</v>
@@ -4089,7 +4156,7 @@
         <v>9</v>
       </c>
       <c r="BA20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -4211,10 +4278,10 @@
         <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>6</v>
@@ -4232,13 +4299,13 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="n">
         <v>21</v>
       </c>
       <c r="AP21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
         <v>10</v>
@@ -4259,7 +4326,7 @@
         <v>18</v>
       </c>
       <c r="AW21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>22</v>
       </c>
       <c r="AZ21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA21" t="n">
         <v>28</v>
@@ -4277,7 +4344,7 @@
         <v>4</v>
       </c>
       <c r="BC21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>25</v>
@@ -4396,7 +4463,7 @@
         <v>25</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>17</v>
@@ -4414,13 +4481,13 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO22" t="n">
         <v>6</v>
       </c>
       <c r="AP22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ22" t="n">
         <v>9</v>
@@ -4441,7 +4508,7 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" t="n">
         <v>55</v>
       </c>
       <c r="F23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" t="n">
-        <v>0.743</v>
+        <v>0.753</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J23" t="n">
         <v>78.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L23" t="n">
         <v>10.2</v>
@@ -4518,25 +4585,25 @@
         <v>26.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.386</v>
+        <v>0.388</v>
       </c>
       <c r="O23" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P23" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="R23" t="n">
         <v>9.9</v>
       </c>
       <c r="S23" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T23" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U23" t="n">
         <v>19.5</v>
@@ -4545,7 +4612,7 @@
         <v>14.3</v>
       </c>
       <c r="W23" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
         <v>5.3</v>
@@ -4557,16 +4624,16 @@
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4575,13 +4642,13 @@
         <v>3</v>
       </c>
       <c r="AG23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ23" t="n">
         <v>26</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4757,19 +4824,19 @@
         <v>14</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ24" t="n">
         <v>17</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4787,7 +4854,7 @@
         <v>6</v>
       </c>
       <c r="AQ24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR24" t="n">
         <v>2</v>
@@ -4796,7 +4863,7 @@
         <v>26</v>
       </c>
       <c r="AT24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU24" t="n">
         <v>22</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" t="n">
         <v>34</v>
       </c>
       <c r="G25" t="n">
-        <v>0.547</v>
+        <v>0.541</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4873,64 +4940,64 @@
         <v>81.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.505</v>
+        <v>0.504</v>
       </c>
       <c r="L25" t="n">
         <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.382</v>
+        <v>0.381</v>
       </c>
       <c r="O25" t="n">
         <v>20.1</v>
       </c>
       <c r="P25" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.748</v>
+        <v>0.751</v>
       </c>
       <c r="R25" t="n">
         <v>10.7</v>
       </c>
       <c r="S25" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T25" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U25" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V25" t="n">
         <v>15.7</v>
       </c>
       <c r="W25" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
         <v>5.1</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>109.1</v>
+        <v>109</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4942,7 +5009,7 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
@@ -4960,7 +5027,7 @@
         <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>5</v>
@@ -4969,10 +5036,10 @@
         <v>5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AS25" t="n">
         <v>10</v>
@@ -4984,7 +5051,7 @@
         <v>3</v>
       </c>
       <c r="AV25" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AW25" t="n">
         <v>20</v>
@@ -5002,7 +5069,7 @@
         <v>6</v>
       </c>
       <c r="BB25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E26" t="n">
         <v>47</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.644</v>
+        <v>0.635</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.463</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M26" t="n">
         <v>19.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
@@ -5082,13 +5149,13 @@
         <v>28.4</v>
       </c>
       <c r="T26" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U26" t="n">
         <v>20.4</v>
       </c>
       <c r="V26" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W26" t="n">
         <v>6.7</v>
@@ -5100,34 +5167,34 @@
         <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA26" t="n">
         <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>23</v>
@@ -5145,13 +5212,13 @@
         <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,13 +5227,13 @@
         <v>28</v>
       </c>
       <c r="AT26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
         <v>17</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -5216,61 +5283,61 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" t="n">
-        <v>0.216</v>
+        <v>0.219</v>
       </c>
       <c r="H27" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J27" t="n">
-        <v>81.09999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L27" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
         <v>19.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.368</v>
+        <v>0.366</v>
       </c>
       <c r="O27" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="P27" t="n">
-        <v>26.1</v>
+        <v>25.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.804</v>
+        <v>0.803</v>
       </c>
       <c r="R27" t="n">
         <v>10</v>
       </c>
       <c r="S27" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="T27" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="U27" t="n">
         <v>19.8</v>
       </c>
       <c r="V27" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W27" t="n">
         <v>7.1</v>
@@ -5285,16 +5352,16 @@
         <v>23.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.9</v>
+        <v>100.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.1</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5309,7 +5376,7 @@
         <v>3</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="n">
         <v>14</v>
@@ -5324,7 +5391,7 @@
         <v>11</v>
       </c>
       <c r="AN27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5488,13 +5555,13 @@
         <v>6</v>
       </c>
       <c r="AH28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI28" t="n">
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
         <v>7</v>
@@ -5524,10 +5591,10 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -5580,55 +5647,55 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" t="n">
         <v>45</v>
       </c>
       <c r="G29" t="n">
-        <v>0.392</v>
+        <v>0.384</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J29" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L29" t="n">
         <v>5.9</v>
       </c>
       <c r="M29" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O29" t="n">
         <v>18.9</v>
       </c>
       <c r="P29" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.826</v>
+        <v>0.828</v>
       </c>
       <c r="R29" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="U29" t="n">
         <v>22.1</v>
@@ -5643,10 +5710,10 @@
         <v>4.7</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA29" t="n">
         <v>20.2</v>
@@ -5655,19 +5722,19 @@
         <v>98.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
         <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
         <v>14</v>
@@ -5694,7 +5761,7 @@
         <v>16</v>
       </c>
       <c r="AP29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5706,7 +5773,7 @@
         <v>11</v>
       </c>
       <c r="AT29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
         <v>6</v>
@@ -5718,19 +5785,19 @@
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
       </c>
       <c r="AZ29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA29" t="n">
         <v>22</v>
       </c>
       <c r="BB29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BC29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>3.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
         <v>10</v>
@@ -5852,7 +5919,7 @@
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI30" t="n">
         <v>5</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,13 +5946,13 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>11</v>
       </c>
       <c r="AS30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT30" t="n">
         <v>18</v>
@@ -5897,10 +5964,10 @@
         <v>22</v>
       </c>
       <c r="AW30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
         <v>19</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" t="n">
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G31" t="n">
-        <v>0.224</v>
+        <v>0.227</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5983,7 +6050,7 @@
         <v>23.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R31" t="n">
         <v>11.8</v>
@@ -5995,7 +6062,7 @@
         <v>39.9</v>
       </c>
       <c r="U31" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V31" t="n">
         <v>13.9</v>
@@ -6004,25 +6071,25 @@
         <v>7.6</v>
       </c>
       <c r="X31" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y31" t="n">
         <v>5.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.7</v>
+        <v>-7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6034,10 +6101,10 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
@@ -6058,7 +6125,7 @@
         <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="n">
         <v>18</v>
@@ -6070,7 +6137,7 @@
         <v>30</v>
       </c>
       <c r="AT31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU31" t="n">
         <v>25</v>
@@ -6079,7 +6146,7 @@
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
         <v>24</v>
@@ -6091,7 +6158,7 @@
         <v>13</v>
       </c>
       <c r="BA31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-1-2008-09</t>
+          <t>2009-04-01</t>
         </is>
       </c>
     </row>
